--- a/data_3_bus.xlsx
+++ b/data_3_bus.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A8790B-BA16-481A-B99F-987B55C26B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B6AB6B-D3D8-46CD-A8AA-FA74B44179B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="11" r:id="rId1"/>
+    <sheet name="loadcurve" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="A">data!$AP$4:$AV$6</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Generador</t>
   </si>
@@ -104,16 +105,10 @@
     <t>Barra destino</t>
   </si>
   <si>
-    <t>Reactancia</t>
-  </si>
-  <si>
     <t>LINEAS</t>
   </si>
   <si>
     <t>DEMANDA</t>
-  </si>
-  <si>
-    <t>Resistencia</t>
   </si>
   <si>
     <t>S nominal (MVA)</t>
@@ -195,6 +190,25 @@
   </si>
   <si>
     <t>Costo Apagado [USD]</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Reactancia [Ohm\Km]</t>
+  </si>
+  <si>
+    <t>Resistencia
+ [Ohm\Km]</t>
   </si>
 </sst>
 </file>
@@ -313,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,6 +388,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,6 +422,3115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Residencial</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>loadcurve!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>loadcurve!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-303D-459B-81EA-E8DC4A37F8F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="513615631"/>
+        <c:axId val="516139135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="513615631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516139135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516139135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513615631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Industrial</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>loadcurve!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>loadcurve!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6295-46F7-92F7-636CF5179F99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="513615631"/>
+        <c:axId val="516139135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="513615631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516139135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516139135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513615631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Comercial</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>loadcurve!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>loadcurve!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F77-4FDD-BE3F-03BF73D18A27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="513615631"/>
+        <c:axId val="516139135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="513615631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516139135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516139135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513615631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1606C5BD-B023-4673-AC5D-95ADD3518C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228598</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492FEDD2-A9C2-439D-B61B-20EF4E541AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761B7FE-2DC8-4FC8-8036-9213A5BCC012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,11 +3798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D632FA8-BC53-4827-A315-1C58737CF827}">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11.42578125" style="9"/>
     <col min="15" max="15" width="11.42578125" style="10"/>
@@ -680,181 +3810,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="P1" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="T1" s="28" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="P1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AB1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AO1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AY1" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="T1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AB1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AO1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AY1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
     </row>
     <row r="2" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
     </row>
     <row r="3" spans="1:59" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="L3" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>10</v>
@@ -869,103 +3999,103 @@
         <v>13</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>18</v>
+      <c r="AM3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="AO3" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AP3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="AW3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AY3" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AZ3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BE3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BF3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="BE3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF3" s="25" t="s">
-        <v>33</v>
-      </c>
       <c r="BG3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -976,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3">
         <v>50</v>
@@ -991,38 +4121,38 @@
         <v>10</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I4" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="J4" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="M4" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N4" s="4">
         <f>SQRT(J4^2+L4^2)</f>
-        <v>111.80339887498948</v>
+        <v>424.26406871192853</v>
       </c>
       <c r="O4" s="12"/>
-      <c r="P4" s="6">
+      <c r="P4" s="28">
         <v>0</v>
       </c>
       <c r="Q4" s="21">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="R4" s="21">
         <v>0</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="30">
         <v>1</v>
       </c>
       <c r="U4" s="5">
@@ -1035,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="X4" s="5">
-        <v>0.29499999999999998</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="Y4" s="5">
         <v>5.8999999999999997E-2</v>
@@ -1081,7 +4211,7 @@
         <v>53.851648071345039</v>
       </c>
       <c r="AO4" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP4" s="24">
         <v>1</v>
@@ -1108,7 +4238,7 @@
         <v>0.01</v>
       </c>
       <c r="AY4" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ4" s="24">
         <v>1</v>
@@ -1158,38 +4288,38 @@
         <v>200</v>
       </c>
       <c r="H5" s="3">
+        <v>300</v>
+      </c>
+      <c r="I5" s="3">
+        <v>300</v>
+      </c>
+      <c r="J5" s="3">
+        <v>400</v>
+      </c>
+      <c r="K5" s="3">
         <v>50</v>
       </c>
-      <c r="I5" s="3">
-        <v>50</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
+        <v>300</v>
+      </c>
+      <c r="M5" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SQRT(J5^2+L5^2)</f>
+        <v>500</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="21">
         <v>200</v>
-      </c>
-      <c r="K5" s="3">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3">
-        <v>50</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" ref="N5:N6" si="0">SQRT(J5^2+L5^2)</f>
-        <v>206.15528128088303</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>100</v>
       </c>
       <c r="R5" s="21">
         <v>0</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="30">
         <v>2</v>
       </c>
       <c r="U5" s="5">
@@ -1202,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="X5" s="5">
-        <v>0.29499999999999998</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="Y5" s="5">
         <v>5.8999999999999997E-2</v>
@@ -1244,11 +4374,11 @@
         <v>0</v>
       </c>
       <c r="AM5" s="4">
-        <f t="shared" ref="AM5:AM6" si="1">SQRT(AI5^2+AK5^2)</f>
+        <f t="shared" ref="AM5:AM6" si="0">SQRT(AI5^2+AK5^2)</f>
         <v>53.851648071345039</v>
       </c>
       <c r="AO5" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AP5" s="24">
         <v>1</v>
@@ -1275,7 +4405,7 @@
         <v>0.01</v>
       </c>
       <c r="AY5" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AZ5" s="24">
         <v>1</v>
@@ -1319,44 +4449,44 @@
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3">
         <v>50</v>
       </c>
       <c r="H6" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I6" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="J6" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>304.13812651491099</v>
+        <f t="shared" ref="N6" si="1">SQRT(J6^2+L6^2)</f>
+        <v>583.09518948453001</v>
       </c>
       <c r="O6" s="12"/>
-      <c r="P6" s="6">
+      <c r="P6" s="28">
         <v>2</v>
       </c>
       <c r="Q6" s="21">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="R6" s="21">
         <v>0</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="30">
         <v>3</v>
       </c>
       <c r="U6" s="5">
@@ -1369,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="X6" s="5">
-        <v>0.29499999999999998</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="Y6" s="5">
         <v>5.8999999999999997E-2</v>
@@ -1411,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="AM6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90.972523324353276</v>
       </c>
       <c r="AO6" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AP6" s="24">
         <v>1</v>
@@ -1442,7 +4572,7 @@
         <v>0.01</v>
       </c>
       <c r="AY6" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AZ6" s="24">
         <v>1</v>
@@ -1471,7 +4601,7 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AO7" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP7" s="22">
         <v>1</v>
@@ -1498,7 +4628,7 @@
         <v>0.01</v>
       </c>
       <c r="AY7" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AZ7" s="22">
         <v>1</v>
@@ -1563,7 +4693,7 @@
         <v>11</v>
       </c>
       <c r="AO8" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP8" s="22">
         <v>1</v>
@@ -1590,7 +4720,7 @@
         <v>0.01</v>
       </c>
       <c r="AY8" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ8" s="22">
         <v>1</v>
@@ -1693,7 +4823,7 @@
         <v>6</v>
       </c>
       <c r="AO9" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AP9" s="23">
         <v>1</v>
@@ -1720,7 +4850,7 @@
         <v>0.01</v>
       </c>
       <c r="AY9" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AZ9" s="23">
         <v>1</v>
@@ -1749,7 +4879,7 @@
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AU10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1764,4 +4894,370 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127E3B10-D85C-494D-B830-85C63CDBD0BC}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.85</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.7</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="C23" s="29">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="29">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data_3_bus.xlsx
+++ b/data_3_bus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS-V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B6AB6B-D3D8-46CD-A8AA-FA74B44179B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACA9B00-A6F9-43E6-8C5C-2392C0C73821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Generador</t>
   </si>
@@ -210,12 +210,25 @@
     <t>Resistencia
  [Ohm\Km]</t>
   </si>
+  <si>
+    <t>DMAX1</t>
+  </si>
+  <si>
+    <t>DMAX2</t>
+  </si>
+  <si>
+    <t>DMAX3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +265,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,6 +442,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +472,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -533,76 +578,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,7 +926,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -987,76 +1032,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,7 +1380,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1441,76 +1486,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3798,11 +3843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D632FA8-BC53-4827-A315-1C58737CF827}">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11.42578125" style="9"/>
     <col min="15" max="15" width="11.42578125" style="10"/>
@@ -4156,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
@@ -4195,20 +4240,20 @@
         <v>14</v>
       </c>
       <c r="AI4" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" s="4">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="AK4" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AL4" s="4">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="AM4" s="4">
         <f>SQRT(AI4^2+AK4^2)</f>
-        <v>53.851648071345039</v>
+        <v>1118.0339887498949</v>
       </c>
       <c r="AO4" s="24" t="s">
         <v>32</v>
@@ -4323,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="U5" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="V5" s="5">
         <v>1</v>
@@ -4347,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="AD5" s="4">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AE5" s="4">
         <v>20</v>
@@ -4362,20 +4407,20 @@
         <v>14</v>
       </c>
       <c r="AI5" s="4">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" s="4">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="AK5" s="4">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AL5" s="4">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" ref="AM5:AM6" si="0">SQRT(AI5^2+AK5^2)</f>
-        <v>53.851648071345039</v>
+        <v>1118.0339887498949</v>
       </c>
       <c r="AO5" s="24" t="s">
         <v>33</v>
@@ -4490,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="U6" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="V6" s="5">
         <v>0</v>
@@ -4514,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="AD6" s="4">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="AE6" s="4">
         <v>7</v>
@@ -4529,20 +4574,20 @@
         <v>53.2</v>
       </c>
       <c r="AI6" s="4">
-        <v>50</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="AJ6" s="38">
+        <v>-1000</v>
       </c>
       <c r="AK6" s="4">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="AL6" s="4">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="AM6" s="4">
         <f t="shared" si="0"/>
-        <v>90.972523324353276</v>
+        <v>1118.0339887498949</v>
       </c>
       <c r="AO6" s="24" t="s">
         <v>33</v>
@@ -4600,6 +4645,7 @@
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="37"/>
       <c r="AO7" s="22" t="s">
         <v>34</v>
       </c>
@@ -4878,6 +4924,7 @@
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="37"/>
       <c r="AU10" t="s">
         <v>39</v>
       </c>
@@ -4893,36 +4940,50 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127E3B10-D85C-494D-B830-85C63CDBD0BC}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="35"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="35" t="s">
         <v>46</v>
       </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.2</v>
@@ -4933,10 +4994,22 @@
       <c r="D2">
         <v>0.2</v>
       </c>
+      <c r="F2">
+        <f>B2*data!$Q$4</f>
+        <v>30</v>
+      </c>
+      <c r="G2" s="29">
+        <f>C2*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H2" s="29">
+        <f>D2*data!$Q$6</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -4947,10 +5020,22 @@
       <c r="D3">
         <v>0.2</v>
       </c>
+      <c r="F3" s="29">
+        <f>B3*data!$Q$4</f>
+        <v>30</v>
+      </c>
+      <c r="G3" s="29">
+        <f>C3*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H3" s="29">
+        <f>D3*data!$Q$6</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -4961,10 +5046,22 @@
       <c r="D4">
         <v>0.2</v>
       </c>
+      <c r="F4" s="29">
+        <f>B4*data!$Q$4</f>
+        <v>30</v>
+      </c>
+      <c r="G4" s="29">
+        <f>C4*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H4" s="29">
+        <f>D4*data!$Q$6</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0.2</v>
@@ -4975,10 +5072,22 @@
       <c r="D5">
         <v>0.2</v>
       </c>
+      <c r="F5" s="29">
+        <f>B5*data!$Q$4</f>
+        <v>30</v>
+      </c>
+      <c r="G5" s="29">
+        <f>C5*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H5" s="29">
+        <f>D5*data!$Q$6</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.3</v>
@@ -4989,10 +5098,22 @@
       <c r="D6">
         <v>0.2</v>
       </c>
+      <c r="F6" s="29">
+        <f>B6*data!$Q$4</f>
+        <v>45</v>
+      </c>
+      <c r="G6" s="29">
+        <f>C6*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H6" s="29">
+        <f>D6*data!$Q$6</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0.4</v>
@@ -5003,10 +5124,22 @@
       <c r="D7">
         <v>0.2</v>
       </c>
+      <c r="F7" s="29">
+        <f>B7*data!$Q$4</f>
+        <v>60</v>
+      </c>
+      <c r="G7" s="29">
+        <f>C7*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H7" s="29">
+        <f>D7*data!$Q$6</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -5017,10 +5150,22 @@
       <c r="D8">
         <v>0.2</v>
       </c>
+      <c r="F8" s="29">
+        <f>B8*data!$Q$4</f>
+        <v>120</v>
+      </c>
+      <c r="G8" s="29">
+        <f>C8*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H8" s="29">
+        <f>D8*data!$Q$6</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0.85</v>
@@ -5031,10 +5176,22 @@
       <c r="D9">
         <v>0.4</v>
       </c>
+      <c r="F9" s="29">
+        <f>B9*data!$Q$4</f>
+        <v>127.5</v>
+      </c>
+      <c r="G9" s="29">
+        <f>C9*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H9" s="29">
+        <f>D9*data!$Q$6</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -5045,10 +5202,22 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="F10" s="29">
+        <f>B10*data!$Q$4</f>
+        <v>120</v>
+      </c>
+      <c r="G10" s="29">
+        <f>C10*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H10" s="29">
+        <f>D10*data!$Q$6</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -5059,10 +5228,22 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="F11" s="29">
+        <f>B11*data!$Q$4</f>
+        <v>105</v>
+      </c>
+      <c r="G11" s="29">
+        <f>C11*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H11" s="29">
+        <f>D11*data!$Q$6</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0.6</v>
@@ -5073,10 +5254,22 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="F12" s="29">
+        <f>B12*data!$Q$4</f>
+        <v>90</v>
+      </c>
+      <c r="G12" s="29">
+        <f>C12*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H12" s="29">
+        <f>D12*data!$Q$6</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0.5</v>
@@ -5087,10 +5280,22 @@
       <c r="D13" s="29">
         <v>1</v>
       </c>
+      <c r="F13" s="29">
+        <f>B13*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G13" s="29">
+        <f>C13*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H13" s="29">
+        <f>D13*data!$Q$6</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0.5</v>
@@ -5101,10 +5306,22 @@
       <c r="D14" s="29">
         <v>1</v>
       </c>
+      <c r="F14" s="29">
+        <f>B14*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G14" s="29">
+        <f>C14*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H14" s="29">
+        <f>D14*data!$Q$6</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -5115,10 +5332,22 @@
       <c r="D15" s="29">
         <v>1</v>
       </c>
+      <c r="F15" s="29">
+        <f>B15*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G15" s="29">
+        <f>C15*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H15" s="29">
+        <f>D15*data!$Q$6</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -5129,10 +5358,22 @@
       <c r="D16" s="29">
         <v>1</v>
       </c>
+      <c r="F16" s="29">
+        <f>B16*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G16" s="29">
+        <f>C16*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H16" s="29">
+        <f>D16*data!$Q$6</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0.6</v>
@@ -5143,10 +5384,22 @@
       <c r="D17" s="29">
         <v>1</v>
       </c>
+      <c r="F17" s="29">
+        <f>B17*data!$Q$4</f>
+        <v>90</v>
+      </c>
+      <c r="G17" s="29">
+        <f>C17*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H17" s="29">
+        <f>D17*data!$Q$6</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0.7</v>
@@ -5157,10 +5410,25 @@
       <c r="D18" s="29">
         <v>1</v>
       </c>
+      <c r="F18" s="36">
+        <f>B18*data!$Q$4</f>
+        <v>105</v>
+      </c>
+      <c r="G18" s="36">
+        <f>C18*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H18" s="36">
+        <f>D18*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="T18" s="39">
+        <v>13.884</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0.8</v>
@@ -5171,52 +5439,110 @@
       <c r="D19" s="29">
         <v>1</v>
       </c>
+      <c r="F19" s="29">
+        <f>B19*data!$Q$4</f>
+        <v>120</v>
+      </c>
+      <c r="G19" s="29">
+        <f>C19*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H19" s="29">
+        <f>D19*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="T19" s="40">
+        <v>-55.121957000000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29">
+        <f>B20*data!$Q$4</f>
+        <v>150</v>
+      </c>
+      <c r="G20" s="29">
+        <f>C20*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H20" s="29">
+        <f>D20*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="T20" s="40">
+        <v>242.61700500000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="29">
-        <v>1</v>
-      </c>
-      <c r="D20" s="29">
-        <v>1</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29">
+        <f>B21*data!$Q$4</f>
+        <v>150</v>
+      </c>
+      <c r="G21" s="29">
+        <f>C21*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H21" s="29">
+        <f>D21*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="T21" s="39">
+        <f>T18+T20+T19</f>
+        <v>201.37904800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="29">
-        <v>1</v>
-      </c>
-      <c r="D21" s="29">
-        <v>1</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29">
+        <f>B22*data!$Q$4</f>
+        <v>150</v>
+      </c>
+      <c r="G22" s="29">
+        <f>C22*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H22" s="29">
+        <f>D22*data!$Q$6</f>
+        <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
         <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="29">
-        <v>1</v>
-      </c>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
       </c>
       <c r="B23">
         <v>0.6</v>
@@ -5227,10 +5553,22 @@
       <c r="D23">
         <v>0.8</v>
       </c>
+      <c r="F23" s="29">
+        <f>B23*data!$Q$4</f>
+        <v>90</v>
+      </c>
+      <c r="G23" s="29">
+        <f>C23*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H23" s="29">
+        <f>D23*data!$Q$6</f>
+        <v>200</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="35">
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0.5</v>
@@ -5241,10 +5579,22 @@
       <c r="D24">
         <v>0.6</v>
       </c>
+      <c r="F24" s="29">
+        <f>B24*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G24" s="29">
+        <f>C24*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H24" s="29">
+        <f>D24*data!$Q$6</f>
+        <v>150</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="35">
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0.4</v>
@@ -5254,10 +5604,23 @@
       </c>
       <c r="D25">
         <v>0.3</v>
+      </c>
+      <c r="F25" s="29">
+        <f>B25*data!$Q$4</f>
+        <v>60</v>
+      </c>
+      <c r="G25" s="29">
+        <f>C25*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H25" s="29">
+        <f>D25*data!$Q$6</f>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data_3_bus.xlsx
+++ b/data_3_bus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACA9B00-A6F9-43E6-8C5C-2392C0C73821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA9F039-1EE7-4A45-9D15-B005F8734B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,13 @@
     <sheet name="loadcurve" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="A">data!$AP$4:$AV$6</definedName>
-    <definedName name="AA">data!$AZ$4:$BD$6</definedName>
-    <definedName name="B">data!$AP$7:$AV$9</definedName>
-    <definedName name="BB">data!$AZ$7:$BD$9</definedName>
+    <definedName name="A">data!$AS$4:$AY$6</definedName>
+    <definedName name="AA">data!$BC$4:$BG$6</definedName>
+    <definedName name="B">data!$AS$7:$AY$9</definedName>
+    <definedName name="BB">data!$BC$7:$BG$9</definedName>
     <definedName name="DBAR">data!$P$3:$P$6</definedName>
     <definedName name="DPDEM">data!$Q$3:$Q$6</definedName>
-    <definedName name="DQDEM">data!$R$3:$R$6</definedName>
+    <definedName name="DQDEM">data!$U$3:$U$6</definedName>
     <definedName name="GBAR">data!$B$3:$B$6</definedName>
     <definedName name="GCRDOWN">data!$E$3:$E$6</definedName>
     <definedName name="GCRUP">data!$D$3:$D$6</definedName>
@@ -36,14 +36,14 @@
     <definedName name="GRDOWNMAX">data!$I$3:$I$6</definedName>
     <definedName name="GRUPMAX">data!$H$3:$H$6</definedName>
     <definedName name="GSNOM">data!$N$3:$N$6</definedName>
-    <definedName name="LBDES">data!$W$3:$W$6</definedName>
-    <definedName name="LBORI">data!$V$3:$V$6</definedName>
-    <definedName name="LFMAX">data!$U$3:$U$6</definedName>
-    <definedName name="LLARG">data!$Z$3:$Z$6</definedName>
-    <definedName name="LLIN">data!$T$3:$T$6</definedName>
-    <definedName name="LREAC">data!$X$3:$X$6</definedName>
-    <definedName name="LRESI">data!$Y$3:$Y$6</definedName>
-    <definedName name="PROB">data!$AW$3:$AW$9</definedName>
+    <definedName name="LBDES">data!$Z$3:$Z$6</definedName>
+    <definedName name="LBORI">data!$Y$3:$Y$6</definedName>
+    <definedName name="LFMAX">data!$X$3:$X$6</definedName>
+    <definedName name="LLARG">data!$AC$3:$AC$6</definedName>
+    <definedName name="LLIN">data!$W$3:$W$6</definedName>
+    <definedName name="LREAC">data!$AA$3:$AA$6</definedName>
+    <definedName name="LRESI">data!$AB$3:$AB$6</definedName>
+    <definedName name="PROB">data!$AZ$3:$AZ$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Generador</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Demanda P (MW)</t>
-  </si>
-  <si>
-    <t>Demanda Q (MW)</t>
   </si>
   <si>
     <t>ESCENARIOS</t>
@@ -219,14 +216,26 @@
   <si>
     <t>DMAX3</t>
   </si>
+  <si>
+    <t>Load Shedding Price [USD/MWh]</t>
+  </si>
+  <si>
+    <t>Min P (MW)</t>
+  </si>
+  <si>
+    <t>Min Q (MVAR)</t>
+  </si>
+  <si>
+    <t>Demanda Q (MVAR)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -282,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,12 +325,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +433,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,16 +454,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +475,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -926,7 +929,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1380,7 +1383,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3841,144 +3844,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D632FA8-BC53-4827-A315-1C58737CF827}">
-  <dimension ref="A1:BG10"/>
+  <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11.42578125" style="9"/>
     <col min="15" max="15" width="11.42578125" style="10"/>
-    <col min="19" max="19" width="11.42578125" style="9"/>
+    <col min="18" max="20" width="11.42578125" style="29"/>
+    <col min="22" max="22" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="P1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="P1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="T1" s="31" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="W1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AB1" s="31" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AE1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AO1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AY1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AR1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BB1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
     </row>
-    <row r="2" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="31"/>
-      <c r="BG2" s="31"/>
+    <row r="2" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
     </row>
-    <row r="3" spans="1:59" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -3995,10 +4005,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>5</v>
@@ -4029,121 +4039,130 @@
         <v>22</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AP3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AO3" s="20" t="s">
+      <c r="AR3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="BB3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BH3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BI3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AV3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY3" s="20" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4197,82 +4216,82 @@
       <c r="R4" s="21">
         <v>0</v>
       </c>
-      <c r="T4" s="30">
-        <v>1</v>
-      </c>
-      <c r="U4" s="5">
+      <c r="S4" s="21">
+        <v>100</v>
+      </c>
+      <c r="T4" s="21">
+        <v>0</v>
+      </c>
+      <c r="U4" s="21">
+        <v>0</v>
+      </c>
+      <c r="W4" s="30">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5">
         <v>150</v>
       </c>
-      <c r="V4" s="5">
+      <c r="Y4" s="5">
         <v>0</v>
       </c>
-      <c r="W4" s="5">
-        <v>1</v>
-      </c>
-      <c r="X4" s="5">
+      <c r="Z4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="5">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="AB4" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="Z4" s="5">
-        <v>400</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="5">
+        <v>300</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3">
         <v>0</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AG4" s="4">
         <v>10</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AH4" s="4">
         <v>20</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AI4" s="4">
         <v>5</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AJ4" s="4">
         <v>14</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AK4" s="4">
         <v>14</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AL4" s="4">
         <v>1000</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AM4" s="4">
         <v>-1000</v>
       </c>
-      <c r="AK4" s="4">
-        <v>500</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>-500</v>
-      </c>
-      <c r="AM4" s="4">
-        <f>SQRT(AI4^2+AK4^2)</f>
-        <v>1118.0339887498949</v>
-      </c>
-      <c r="AO4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP4" s="24">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="24">
+      <c r="AN4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="AP4" s="4">
+        <f>SQRT(AL4^2+AN4^2)</f>
+        <v>1414.2135623730951</v>
+      </c>
+      <c r="AR4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="24">
         <v>0</v>
       </c>
-      <c r="AR4" s="24">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="24">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="24">
-        <v>1</v>
-      </c>
       <c r="AU4" s="24">
         <v>1</v>
       </c>
@@ -4280,37 +4299,46 @@
         <v>1</v>
       </c>
       <c r="AW4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="24">
         <v>0.01</v>
       </c>
-      <c r="AY4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ4" s="24">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="24">
+      <c r="BB4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC4" s="24">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="24">
         <v>0</v>
       </c>
-      <c r="BB4" s="24">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="24">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="24">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="26">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="26">
+      <c r="BE4" s="24">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="24">
         <v>1</v>
       </c>
       <c r="BG4" s="24">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="26">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="26">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4364,120 +4392,129 @@
       <c r="R5" s="21">
         <v>0</v>
       </c>
-      <c r="T5" s="30">
+      <c r="S5" s="21">
+        <v>100</v>
+      </c>
+      <c r="T5" s="21">
+        <v>0</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0</v>
+      </c>
+      <c r="W5" s="30">
         <v>2</v>
       </c>
-      <c r="U5" s="5">
+      <c r="X5" s="5">
         <v>150</v>
       </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
+      <c r="Y5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="5">
         <v>2</v>
       </c>
-      <c r="X5" s="5">
+      <c r="AA5" s="5">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="AB5" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="Z5" s="5">
-        <v>400</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="5">
+        <v>300</v>
+      </c>
+      <c r="AE5" s="1">
         <v>2</v>
       </c>
-      <c r="AC5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="4">
+      <c r="AF5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="4">
         <v>10</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AH5" s="4">
         <v>20</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AI5" s="4">
         <v>5</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AJ5" s="4">
         <v>14</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AK5" s="4">
         <v>14</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AL5" s="4">
         <v>1000</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AM5" s="4">
         <v>-1000</v>
       </c>
-      <c r="AK5" s="4">
-        <v>500</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>-500</v>
-      </c>
-      <c r="AM5" s="4">
-        <f t="shared" ref="AM5:AM6" si="0">SQRT(AI5^2+AK5^2)</f>
-        <v>1118.0339887498949</v>
-      </c>
-      <c r="AO5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP5" s="24">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="24">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="24">
+      <c r="AN5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" ref="AP5:AP6" si="0">SQRT(AL5^2+AN5^2)</f>
+        <v>1414.2135623730951</v>
+      </c>
+      <c r="AR5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS5" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="24">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="24">
         <v>0</v>
       </c>
-      <c r="AS5" s="24">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="24">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="24">
-        <v>1</v>
-      </c>
       <c r="AV5" s="24">
         <v>1</v>
       </c>
       <c r="AW5" s="24">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="24">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="24">
         <v>0.01</v>
       </c>
-      <c r="AY5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ5" s="24">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="24">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="24">
+      <c r="BB5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC5" s="24">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="24">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="24">
         <v>0</v>
       </c>
-      <c r="BC5" s="24">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="24">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="26">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="26">
+      <c r="BF5" s="24">
         <v>1</v>
       </c>
       <c r="BG5" s="24">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="26">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="26">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4531,269 +4568,278 @@
       <c r="R6" s="21">
         <v>0</v>
       </c>
-      <c r="T6" s="30">
+      <c r="S6" s="21">
+        <v>100</v>
+      </c>
+      <c r="T6" s="21">
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <v>0</v>
+      </c>
+      <c r="W6" s="30">
         <v>3</v>
       </c>
-      <c r="U6" s="5">
+      <c r="X6" s="5">
         <v>150</v>
       </c>
-      <c r="V6" s="5">
+      <c r="Y6" s="5">
         <v>0</v>
       </c>
-      <c r="W6" s="5">
+      <c r="Z6" s="5">
         <v>2</v>
       </c>
-      <c r="X6" s="5">
+      <c r="AA6" s="5">
         <v>0.28499999999999998</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="AB6" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="Z6" s="5">
-        <v>400</v>
-      </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="5">
+        <v>300</v>
+      </c>
+      <c r="AE6" s="1">
         <v>3</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AF6" s="3">
         <v>2</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AG6" s="4">
         <v>10</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AH6" s="4">
         <v>7</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AI6" s="4">
         <v>5</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AJ6" s="4">
         <v>53.2</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AK6" s="4">
         <v>53.2</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AL6" s="4">
         <v>1000</v>
       </c>
-      <c r="AJ6" s="38">
+      <c r="AM6" s="33">
         <v>-1000</v>
       </c>
-      <c r="AK6" s="4">
-        <v>500</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>-500</v>
-      </c>
-      <c r="AM6" s="4">
+      <c r="AN6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO6" s="33">
+        <v>-1000</v>
+      </c>
+      <c r="AP6" s="4">
         <f t="shared" si="0"/>
-        <v>1118.0339887498949</v>
-      </c>
-      <c r="AO6" s="24" t="s">
+        <v>1414.2135623730951</v>
+      </c>
+      <c r="AR6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="BB6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC6" s="24">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="24">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="24">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="24">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="24">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="26">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="26">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="AM7" s="32"/>
+      <c r="AR7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AP6" s="24">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="24">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="24">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="24">
+      <c r="AS7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="22">
         <v>0</v>
       </c>
-      <c r="AT6" s="24">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="24">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="24">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="24">
+      <c r="AX7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="22">
         <v>0.01</v>
       </c>
-      <c r="AY6" s="24" t="s">
+      <c r="BB7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AZ6" s="24">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="24">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="24">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="24">
+      <c r="BC7" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="22">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="22">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="22">
         <v>0</v>
       </c>
-      <c r="BD6" s="24">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="26">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="26">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="24">
+      <c r="BH7" s="26">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="26">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AJ7" s="37"/>
-      <c r="AO7" s="22" t="s">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="AE8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="18">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="18">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="18">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="19">
+        <v>8</v>
+      </c>
+      <c r="AN8" s="18">
+        <v>9</v>
+      </c>
+      <c r="AO8" s="19">
+        <v>10</v>
+      </c>
+      <c r="AP8" s="18">
+        <v>11</v>
+      </c>
+      <c r="AR8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AP7" s="22">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="22">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="22">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="22">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="22">
+      <c r="AS8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="22">
         <v>0</v>
       </c>
-      <c r="AU7" s="22">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="22">
+      <c r="AY8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="22">
         <v>0.01</v>
       </c>
-      <c r="AY7" s="22" t="s">
+      <c r="BB8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AZ7" s="22">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="22">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="22">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="22">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="22">
+      <c r="BC8" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="22">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="22">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="22">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="26">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="26">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="22">
         <v>0</v>
       </c>
-      <c r="BE7" s="26">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="26">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="22">
-        <v>0.01</v>
-      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AB8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="18">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="19">
-        <v>4</v>
-      </c>
-      <c r="AG8" s="18">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AI8" s="18">
-        <v>7</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>8</v>
-      </c>
-      <c r="AK8" s="18">
-        <v>9</v>
-      </c>
-      <c r="AL8" s="19">
-        <v>10</v>
-      </c>
-      <c r="AM8" s="18">
-        <v>11</v>
-      </c>
-      <c r="AO8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP8" s="22">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="22">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="22">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="22">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="22">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="AY8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ8" s="22">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="22">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="22">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="22">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="22">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="26">
-        <v>1</v>
-      </c>
-      <c r="BF8" s="26">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>0</v>
       </c>
@@ -4846,39 +4892,39 @@
       <c r="R9" s="17">
         <v>2</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="13">
+      <c r="S9" s="17">
+        <v>3</v>
+      </c>
+      <c r="T9" s="17">
+        <v>4</v>
+      </c>
+      <c r="U9" s="17">
+        <v>5</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="13">
         <v>0</v>
       </c>
-      <c r="U9" s="13">
-        <v>1</v>
-      </c>
-      <c r="V9" s="13">
+      <c r="X9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="13">
         <v>2</v>
       </c>
-      <c r="W9" s="13">
+      <c r="Z9" s="13">
         <v>3</v>
       </c>
-      <c r="X9" s="13">
+      <c r="AA9" s="13">
         <v>4</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="AB9" s="13">
         <v>5</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="AC9" s="13">
         <v>6</v>
       </c>
-      <c r="AO9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP9" s="23">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="23">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="23">
-        <v>1</v>
+      <c r="AR9" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="AS9" s="23">
         <v>1</v>
@@ -4890,22 +4936,22 @@
         <v>1</v>
       </c>
       <c r="AV9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="23">
         <v>0</v>
       </c>
-      <c r="AW9" s="23">
+      <c r="AZ9" s="23">
         <v>0.01</v>
       </c>
-      <c r="AY9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ9" s="23">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="23">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="23">
-        <v>1</v>
+      <c r="BB9" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="BC9" s="23">
         <v>1</v>
@@ -4913,30 +4959,39 @@
       <c r="BD9" s="23">
         <v>1</v>
       </c>
-      <c r="BE9" s="27">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="27">
+      <c r="BE9" s="23">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="23">
         <v>1</v>
       </c>
       <c r="BG9" s="23">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="27">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="27">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AJ10" s="37"/>
-      <c r="AU10" t="s">
-        <v>39</v>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="AM10" s="32"/>
+      <c r="AX10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AY1:BG2"/>
+    <mergeCell ref="BB1:BJ2"/>
     <mergeCell ref="A1:N2"/>
-    <mergeCell ref="T1:Z2"/>
-    <mergeCell ref="AB1:AM2"/>
-    <mergeCell ref="P1:R2"/>
-    <mergeCell ref="AO1:AW2"/>
+    <mergeCell ref="W1:AC2"/>
+    <mergeCell ref="AE1:AP2"/>
+    <mergeCell ref="P1:U2"/>
+    <mergeCell ref="AR1:AZ2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4949,40 +5004,40 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="35"/>
+    <col min="1" max="1" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="31">
         <v>0</v>
       </c>
       <c r="B2">
@@ -5008,7 +5063,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5034,7 +5089,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
       <c r="B4">
@@ -5060,7 +5115,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
       <c r="B5">
@@ -5086,7 +5141,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="31">
         <v>4</v>
       </c>
       <c r="B6">
@@ -5112,7 +5167,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>5</v>
       </c>
       <c r="B7">
@@ -5138,7 +5193,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
       <c r="B8">
@@ -5164,7 +5219,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
       <c r="B9">
@@ -5190,7 +5245,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="31">
         <v>8</v>
       </c>
       <c r="B10">
@@ -5216,7 +5271,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
       <c r="B11">
@@ -5242,7 +5297,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="31">
         <v>10</v>
       </c>
       <c r="B12">
@@ -5268,7 +5323,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="31">
         <v>11</v>
       </c>
       <c r="B13">
@@ -5294,7 +5349,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+      <c r="A14" s="31">
         <v>12</v>
       </c>
       <c r="B14">
@@ -5320,7 +5375,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="31">
         <v>13</v>
       </c>
       <c r="B15">
@@ -5346,7 +5401,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="A16" s="31">
         <v>14</v>
       </c>
       <c r="B16">
@@ -5372,7 +5427,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="A17" s="31">
         <v>15</v>
       </c>
       <c r="B17">
@@ -5398,7 +5453,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="A18" s="31">
         <v>16</v>
       </c>
       <c r="B18">
@@ -5410,24 +5465,22 @@
       <c r="D18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="40">
         <f>B18*data!$Q$4</f>
         <v>105</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="40">
         <f>C18*data!$Q$5</f>
         <v>200</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="40">
         <f>D18*data!$Q$6</f>
         <v>250</v>
       </c>
-      <c r="T18" s="39">
-        <v>13.884</v>
-      </c>
+      <c r="T18" s="34"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="31">
         <v>17</v>
       </c>
       <c r="B19">
@@ -5451,12 +5504,10 @@
         <f>D19*data!$Q$6</f>
         <v>250</v>
       </c>
-      <c r="T19" s="40">
-        <v>-55.121957000000002</v>
-      </c>
+      <c r="T19" s="35"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+      <c r="A20" s="31">
         <v>18</v>
       </c>
       <c r="B20">
@@ -5480,12 +5531,10 @@
         <f>D20*data!$Q$6</f>
         <v>250</v>
       </c>
-      <c r="T20" s="40">
-        <v>242.61700500000001</v>
-      </c>
+      <c r="T20" s="35"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="A21" s="31">
         <v>19</v>
       </c>
       <c r="B21">
@@ -5509,13 +5558,10 @@
         <f>D21*data!$Q$6</f>
         <v>250</v>
       </c>
-      <c r="T21" s="39">
-        <f>T18+T20+T19</f>
-        <v>201.37904800000001</v>
-      </c>
+      <c r="T21" s="34"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
+      <c r="A22" s="31">
         <v>20</v>
       </c>
       <c r="B22">
@@ -5541,7 +5587,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+      <c r="A23" s="31">
         <v>21</v>
       </c>
       <c r="B23">
@@ -5567,7 +5613,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+      <c r="A24" s="31">
         <v>22</v>
       </c>
       <c r="B24">
@@ -5593,7 +5639,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="31">
         <v>23</v>
       </c>
       <c r="B25">

--- a/data_3_bus.xlsx
+++ b/data_3_bus.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS-V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA9F039-1EE7-4A45-9D15-B005F8734B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B54E9-2596-4913-9B24-62C8CA50314A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="11" r:id="rId1"/>
-    <sheet name="loadcurve" sheetId="12" r:id="rId2"/>
+    <sheet name="loadcurve" sheetId="12" r:id="rId1"/>
+    <sheet name="data" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="A">data!$AS$4:$AY$6</definedName>
@@ -442,6 +442,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,7 +455,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +475,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -929,7 +929,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1383,7 +1383,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3843,14 +3843,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127E3B10-D85C-494D-B830-85C63CDBD0BC}">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView showRowColHeaders="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <f>B2*data!$Q$4</f>
+        <v>30</v>
+      </c>
+      <c r="G2" s="29">
+        <f>C2*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H2" s="29">
+        <f>D2*data!$Q$6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="29">
+        <f>B3*data!$Q$4</f>
+        <v>30</v>
+      </c>
+      <c r="G3" s="29">
+        <f>C3*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H3" s="29">
+        <f>D3*data!$Q$6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="29">
+        <f>B4*data!$Q$4</f>
+        <v>30</v>
+      </c>
+      <c r="G4" s="29">
+        <f>C4*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H4" s="29">
+        <f>D4*data!$Q$6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="29">
+        <f>B5*data!$Q$4</f>
+        <v>30</v>
+      </c>
+      <c r="G5" s="29">
+        <f>C5*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H5" s="29">
+        <f>D5*data!$Q$6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="29">
+        <f>B6*data!$Q$4</f>
+        <v>45</v>
+      </c>
+      <c r="G6" s="29">
+        <f>C6*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H6" s="29">
+        <f>D6*data!$Q$6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="29">
+        <f>B7*data!$Q$4</f>
+        <v>60</v>
+      </c>
+      <c r="G7" s="29">
+        <f>C7*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H7" s="29">
+        <f>D7*data!$Q$6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="29">
+        <f>B8*data!$Q$4</f>
+        <v>120</v>
+      </c>
+      <c r="G8" s="29">
+        <f>C8*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H8" s="29">
+        <f>D8*data!$Q$6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.85</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="29">
+        <f>B9*data!$Q$4</f>
+        <v>127.5</v>
+      </c>
+      <c r="G9" s="29">
+        <f>C9*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H9" s="29">
+        <f>D9*data!$Q$6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <f>B10*data!$Q$4</f>
+        <v>120</v>
+      </c>
+      <c r="G10" s="29">
+        <f>C10*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H10" s="29">
+        <f>D10*data!$Q$6</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <f>B11*data!$Q$4</f>
+        <v>105</v>
+      </c>
+      <c r="G11" s="29">
+        <f>C11*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H11" s="29">
+        <f>D11*data!$Q$6</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="29">
+        <f>B12*data!$Q$4</f>
+        <v>90</v>
+      </c>
+      <c r="G12" s="29">
+        <f>C12*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H12" s="29">
+        <f>D12*data!$Q$6</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <f>B13*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G13" s="29">
+        <f>C13*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H13" s="29">
+        <f>D13*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="U13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29">
+        <f>B14*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G14" s="29">
+        <f>C14*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H14" s="29">
+        <f>D14*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="U14">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <f>B15*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G15" s="29">
+        <f>C15*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H15" s="29">
+        <f>D15*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="U15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29">
+        <f>B16*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G16" s="29">
+        <f>C16*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H16" s="29">
+        <f>D16*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="U16">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29">
+        <f>B17*data!$Q$4</f>
+        <v>90</v>
+      </c>
+      <c r="G17" s="29">
+        <f>C17*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H17" s="29">
+        <f>D17*data!$Q$6</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.7</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36">
+        <f>B18*data!$Q$4</f>
+        <v>105</v>
+      </c>
+      <c r="G18" s="36">
+        <f>C18*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H18" s="36">
+        <f>D18*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="T18" s="34"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29">
+        <f>B19*data!$Q$4</f>
+        <v>120</v>
+      </c>
+      <c r="G19" s="29">
+        <f>C19*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H19" s="29">
+        <f>D19*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="T19" s="35"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29">
+        <f>B20*data!$Q$4</f>
+        <v>150</v>
+      </c>
+      <c r="G20" s="29">
+        <f>C20*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H20" s="29">
+        <f>D20*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="T20" s="35"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29">
+        <f>B21*data!$Q$4</f>
+        <v>150</v>
+      </c>
+      <c r="G21" s="29">
+        <f>C21*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H21" s="29">
+        <f>D21*data!$Q$6</f>
+        <v>250</v>
+      </c>
+      <c r="T21" s="34"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29">
+        <f>B22*data!$Q$4</f>
+        <v>150</v>
+      </c>
+      <c r="G22" s="29">
+        <f>C22*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H22" s="29">
+        <f>D22*data!$Q$6</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="C23" s="29">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="29">
+        <f>B23*data!$Q$4</f>
+        <v>90</v>
+      </c>
+      <c r="G23" s="29">
+        <f>C23*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H23" s="29">
+        <f>D23*data!$Q$6</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="29">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.6</v>
+      </c>
+      <c r="F24" s="29">
+        <f>B24*data!$Q$4</f>
+        <v>75</v>
+      </c>
+      <c r="G24" s="29">
+        <f>C24*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H24" s="29">
+        <f>D24*data!$Q$6</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
+      <c r="F25" s="29">
+        <f>B25*data!$Q$4</f>
+        <v>60</v>
+      </c>
+      <c r="G25" s="29">
+        <f>C25*data!$Q$5</f>
+        <v>200</v>
+      </c>
+      <c r="H25" s="29">
+        <f>D25*data!$Q$6</f>
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D632FA8-BC53-4827-A315-1C58737CF827}">
   <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11.42578125" style="9"/>
     <col min="15" max="15" width="11.42578125" style="10"/>
@@ -3859,134 +4543,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="P1" s="38" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="W1" s="36" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="W1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AE1" s="36" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AE1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AR1" s="36" t="s">
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AR1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BB1" s="36" t="s">
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BB1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
     </row>
     <row r="2" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
     </row>
     <row r="3" spans="1:62" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4253,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="AG4" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AH4" s="4">
         <v>20</v>
@@ -4429,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AH5" s="4">
         <v>20</v>
@@ -4605,7 +5289,7 @@
         <v>2</v>
       </c>
       <c r="AG6" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AH6" s="4">
         <v>7</v>
@@ -4997,676 +5681,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127E3B10-D85C-494D-B830-85C63CDBD0BC}">
-  <dimension ref="A1:T25"/>
-  <sheetViews>
-    <sheetView showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="F2">
-        <f>B2*data!$Q$4</f>
-        <v>30</v>
-      </c>
-      <c r="G2" s="29">
-        <f>C2*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H2" s="29">
-        <f>D2*data!$Q$6</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="29">
-        <f>B3*data!$Q$4</f>
-        <v>30</v>
-      </c>
-      <c r="G3" s="29">
-        <f>C3*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H3" s="29">
-        <f>D3*data!$Q$6</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="29">
-        <f>B4*data!$Q$4</f>
-        <v>30</v>
-      </c>
-      <c r="G4" s="29">
-        <f>C4*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H4" s="29">
-        <f>D4*data!$Q$6</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="29">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="29">
-        <f>B5*data!$Q$4</f>
-        <v>30</v>
-      </c>
-      <c r="G5" s="29">
-        <f>C5*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H5" s="29">
-        <f>D5*data!$Q$6</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="29">
-        <f>B6*data!$Q$4</f>
-        <v>45</v>
-      </c>
-      <c r="G6" s="29">
-        <f>C6*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H6" s="29">
-        <f>D6*data!$Q$6</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.4</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="29">
-        <f>B7*data!$Q$4</f>
-        <v>60</v>
-      </c>
-      <c r="G7" s="29">
-        <f>C7*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H7" s="29">
-        <f>D7*data!$Q$6</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.8</v>
-      </c>
-      <c r="C8" s="29">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="29">
-        <f>B8*data!$Q$4</f>
-        <v>120</v>
-      </c>
-      <c r="G8" s="29">
-        <f>C8*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H8" s="29">
-        <f>D8*data!$Q$6</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.85</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0.4</v>
-      </c>
-      <c r="F9" s="29">
-        <f>B9*data!$Q$4</f>
-        <v>127.5</v>
-      </c>
-      <c r="G9" s="29">
-        <f>C9*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H9" s="29">
-        <f>D9*data!$Q$6</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.8</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
-        <f>B10*data!$Q$4</f>
-        <v>120</v>
-      </c>
-      <c r="G10" s="29">
-        <f>C10*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H10" s="29">
-        <f>D10*data!$Q$6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.7</v>
-      </c>
-      <c r="C11" s="29">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
-        <f>B11*data!$Q$4</f>
-        <v>105</v>
-      </c>
-      <c r="G11" s="29">
-        <f>C11*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H11" s="29">
-        <f>D11*data!$Q$6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.6</v>
-      </c>
-      <c r="C12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29">
-        <f>B12*data!$Q$4</f>
-        <v>90</v>
-      </c>
-      <c r="G12" s="29">
-        <f>C12*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H12" s="29">
-        <f>D12*data!$Q$6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="29">
-        <v>1</v>
-      </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
-        <f>B13*data!$Q$4</f>
-        <v>75</v>
-      </c>
-      <c r="G13" s="29">
-        <f>C13*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H13" s="29">
-        <f>D13*data!$Q$6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="29">
-        <v>1</v>
-      </c>
-      <c r="D14" s="29">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29">
-        <f>B14*data!$Q$4</f>
-        <v>75</v>
-      </c>
-      <c r="G14" s="29">
-        <f>C14*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H14" s="29">
-        <f>D14*data!$Q$6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="29">
-        <v>1</v>
-      </c>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
-        <f>B15*data!$Q$4</f>
-        <v>75</v>
-      </c>
-      <c r="G15" s="29">
-        <f>C15*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H15" s="29">
-        <f>D15*data!$Q$6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="29">
-        <v>1</v>
-      </c>
-      <c r="D16" s="29">
-        <v>1</v>
-      </c>
-      <c r="F16" s="29">
-        <f>B16*data!$Q$4</f>
-        <v>75</v>
-      </c>
-      <c r="G16" s="29">
-        <f>C16*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H16" s="29">
-        <f>D16*data!$Q$6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0.6</v>
-      </c>
-      <c r="C17" s="29">
-        <v>1</v>
-      </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="F17" s="29">
-        <f>B17*data!$Q$4</f>
-        <v>90</v>
-      </c>
-      <c r="G17" s="29">
-        <f>C17*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H17" s="29">
-        <f>D17*data!$Q$6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.7</v>
-      </c>
-      <c r="C18" s="29">
-        <v>1</v>
-      </c>
-      <c r="D18" s="29">
-        <v>1</v>
-      </c>
-      <c r="F18" s="40">
-        <f>B18*data!$Q$4</f>
-        <v>105</v>
-      </c>
-      <c r="G18" s="40">
-        <f>C18*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H18" s="40">
-        <f>D18*data!$Q$6</f>
-        <v>250</v>
-      </c>
-      <c r="T18" s="34"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.8</v>
-      </c>
-      <c r="C19" s="29">
-        <v>1</v>
-      </c>
-      <c r="D19" s="29">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29">
-        <f>B19*data!$Q$4</f>
-        <v>120</v>
-      </c>
-      <c r="G19" s="29">
-        <f>C19*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H19" s="29">
-        <f>D19*data!$Q$6</f>
-        <v>250</v>
-      </c>
-      <c r="T19" s="35"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="29">
-        <v>1</v>
-      </c>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="F20" s="29">
-        <f>B20*data!$Q$4</f>
-        <v>150</v>
-      </c>
-      <c r="G20" s="29">
-        <f>C20*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H20" s="29">
-        <f>D20*data!$Q$6</f>
-        <v>250</v>
-      </c>
-      <c r="T20" s="35"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="29">
-        <v>1</v>
-      </c>
-      <c r="D21" s="29">
-        <v>1</v>
-      </c>
-      <c r="F21" s="29">
-        <f>B21*data!$Q$4</f>
-        <v>150</v>
-      </c>
-      <c r="G21" s="29">
-        <f>C21*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H21" s="29">
-        <f>D21*data!$Q$6</f>
-        <v>250</v>
-      </c>
-      <c r="T21" s="34"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="29">
-        <v>1</v>
-      </c>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-      <c r="F22" s="29">
-        <f>B22*data!$Q$4</f>
-        <v>150</v>
-      </c>
-      <c r="G22" s="29">
-        <f>C22*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H22" s="29">
-        <f>D22*data!$Q$6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.6</v>
-      </c>
-      <c r="C23" s="29">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0.8</v>
-      </c>
-      <c r="F23" s="29">
-        <f>B23*data!$Q$4</f>
-        <v>90</v>
-      </c>
-      <c r="G23" s="29">
-        <f>C23*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H23" s="29">
-        <f>D23*data!$Q$6</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="29">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0.6</v>
-      </c>
-      <c r="F24" s="29">
-        <f>B24*data!$Q$4</f>
-        <v>75</v>
-      </c>
-      <c r="G24" s="29">
-        <f>C24*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H24" s="29">
-        <f>D24*data!$Q$6</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.4</v>
-      </c>
-      <c r="C25" s="29">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0.3</v>
-      </c>
-      <c r="F25" s="29">
-        <f>B25*data!$Q$4</f>
-        <v>60</v>
-      </c>
-      <c r="G25" s="29">
-        <f>C25*data!$Q$5</f>
-        <v>200</v>
-      </c>
-      <c r="H25" s="29">
-        <f>D25*data!$Q$6</f>
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/data_3_bus.xlsx
+++ b/data_3_bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B54E9-2596-4913-9B24-62C8CA50314A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D479C3-CFBE-4734-9497-11DF55857A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loadcurve" sheetId="12" r:id="rId1"/>
@@ -475,7 +475,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -929,7 +929,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1383,7 +1383,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3846,11 +3846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127E3B10-D85C-494D-B830-85C63CDBD0BC}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:H22"/>
+    <sheetView showRowColHeaders="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="31"/>
   </cols>
@@ -4530,11 +4530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D632FA8-BC53-4827-A315-1C58737CF827}">
   <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11.42578125" style="9"/>
     <col min="15" max="15" width="11.42578125" style="10"/>
@@ -4869,10 +4869,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I4" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J4" s="3">
         <v>300</v>
@@ -4881,14 +4881,14 @@
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M4" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N4" s="4">
         <f>SQRT(J4^2+L4^2)</f>
-        <v>424.26406871192853</v>
+        <v>360.55512754639892</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="28">
@@ -4928,7 +4928,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC4" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AE4" s="1">
         <v>1</v>
@@ -5104,7 +5104,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC5" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AE5" s="1">
         <v>2</v>
@@ -5280,7 +5280,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC6" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AE6" s="1">
         <v>3</v>

--- a/data_3_bus.xlsx
+++ b/data_3_bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS-V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D479C3-CFBE-4734-9497-11DF55857A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A074D1D-7A55-4877-B613-61666E72319D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loadcurve" sheetId="12" r:id="rId1"/>
@@ -220,13 +220,13 @@
     <t>Load Shedding Price [USD/MWh]</t>
   </si>
   <si>
-    <t>Min P (MW)</t>
-  </si>
-  <si>
     <t>Min Q (MVAR)</t>
   </si>
   <si>
     <t>Demanda Q (MVAR)</t>
+  </si>
+  <si>
+    <t>Load sheeding Max</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,6 +455,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +479,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -929,7 +933,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1383,7 +1387,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3850,7 +3854,7 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="31"/>
   </cols>
@@ -4528,13 +4532,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D632FA8-BC53-4827-A315-1C58737CF827}">
-  <dimension ref="A1:BJ10"/>
+  <dimension ref="A1:BJ16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11.42578125" style="9"/>
     <col min="15" max="15" width="11.42578125" style="10"/>
@@ -4723,16 +4727,16 @@
         <v>22</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="T3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="W3" s="8" t="s">
         <v>10</v>
@@ -4869,10 +4873,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I4" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J4" s="3">
         <v>300</v>
@@ -4901,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="21">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="T4" s="21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U4" s="21">
         <v>0</v>
@@ -4937,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="AG4" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AH4" s="4">
         <v>20</v>
@@ -5045,10 +5049,10 @@
         <v>200</v>
       </c>
       <c r="H5" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I5" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J5" s="3">
         <v>400</v>
@@ -5077,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="21">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="T5" s="21">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U5" s="21">
         <v>0</v>
@@ -5113,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AH5" s="4">
         <v>20</v>
@@ -5221,10 +5225,10 @@
         <v>50</v>
       </c>
       <c r="H6" s="3">
-        <v>300</v>
-      </c>
-      <c r="I6" s="3">
-        <v>300</v>
+        <v>200</v>
+      </c>
+      <c r="I6" s="42">
+        <v>200</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -5253,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="21">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="T6" s="21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U6" s="21">
         <v>0</v>
@@ -5289,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="AG6" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AH6" s="4">
         <v>7</v>
@@ -5375,6 +5379,8 @@
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="S7" s="32"/>
+      <c r="T7" s="41"/>
       <c r="AM7" s="32"/>
       <c r="AR7" s="22" t="s">
         <v>33</v>
@@ -5667,6 +5673,9 @@
       <c r="AX10" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="AG16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/data_3_bus.xlsx
+++ b/data_3_bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A074D1D-7A55-4877-B613-61666E72319D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88795B0E-0941-45CF-8B9E-278FF5F76AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loadcurve" sheetId="12" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Largo [km]</t>
   </si>
   <si>
-    <t>BATERÍAS</t>
-  </si>
-  <si>
     <t>Batería</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   <si>
     <t>Load sheeding Max</t>
   </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
 </sst>
 </file>
 
@@ -237,7 +237,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +290,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,6 +456,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,8 +472,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +498,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -933,7 +952,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1387,7 +1406,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3850,37 +3869,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127E3B10-D85C-494D-B830-85C63CDBD0BC}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>49</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3898,15 +3917,15 @@
       </c>
       <c r="F2">
         <f>B2*data!$Q$4</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="29">
         <f>C2*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H2" s="29">
         <f>D2*data!$Q$6</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3924,15 +3943,15 @@
       </c>
       <c r="F3" s="29">
         <f>B3*data!$Q$4</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="29">
         <f>C3*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H3" s="29">
         <f>D3*data!$Q$6</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3950,15 +3969,15 @@
       </c>
       <c r="F4" s="29">
         <f>B4*data!$Q$4</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="29">
         <f>C4*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H4" s="29">
         <f>D4*data!$Q$6</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -3976,15 +3995,15 @@
       </c>
       <c r="F5" s="29">
         <f>B5*data!$Q$4</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" s="29">
         <f>C5*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H5" s="29">
         <f>D5*data!$Q$6</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4002,15 +4021,15 @@
       </c>
       <c r="F6" s="29">
         <f>B6*data!$Q$4</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="29">
         <f>C6*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H6" s="29">
         <f>D6*data!$Q$6</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4028,15 +4047,15 @@
       </c>
       <c r="F7" s="29">
         <f>B7*data!$Q$4</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G7" s="29">
         <f>C7*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H7" s="29">
         <f>D7*data!$Q$6</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4054,15 +4073,15 @@
       </c>
       <c r="F8" s="29">
         <f>B8*data!$Q$4</f>
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G8" s="29">
         <f>C8*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H8" s="29">
         <f>D8*data!$Q$6</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -4080,15 +4099,15 @@
       </c>
       <c r="F9" s="29">
         <f>B9*data!$Q$4</f>
-        <v>127.5</v>
+        <v>136</v>
       </c>
       <c r="G9" s="29">
         <f>C9*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H9" s="29">
         <f>D9*data!$Q$6</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -4106,15 +4125,15 @@
       </c>
       <c r="F10" s="29">
         <f>B10*data!$Q$4</f>
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G10" s="29">
         <f>C10*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H10" s="29">
         <f>D10*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4132,15 +4151,15 @@
       </c>
       <c r="F11" s="29">
         <f>B11*data!$Q$4</f>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G11" s="29">
         <f>C11*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H11" s="29">
         <f>D11*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4158,15 +4177,15 @@
       </c>
       <c r="F12" s="29">
         <f>B12*data!$Q$4</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G12" s="29">
         <f>C12*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H12" s="29">
         <f>D12*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -4184,15 +4203,15 @@
       </c>
       <c r="F13" s="29">
         <f>B13*data!$Q$4</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G13" s="29">
         <f>C13*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H13" s="29">
         <f>D13*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="U13">
         <v>100</v>
@@ -4213,15 +4232,15 @@
       </c>
       <c r="F14" s="29">
         <f>B14*data!$Q$4</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="29">
         <f>C14*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H14" s="29">
         <f>D14*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="U14">
         <v>252</v>
@@ -4242,15 +4261,15 @@
       </c>
       <c r="F15" s="29">
         <f>B15*data!$Q$4</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G15" s="29">
         <f>C15*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H15" s="29">
         <f>D15*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="U15">
         <v>97</v>
@@ -4271,15 +4290,15 @@
       </c>
       <c r="F16" s="29">
         <f>B16*data!$Q$4</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G16" s="29">
         <f>C16*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H16" s="29">
         <f>D16*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="U16">
         <v>117</v>
@@ -4300,15 +4319,15 @@
       </c>
       <c r="F17" s="29">
         <f>B17*data!$Q$4</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G17" s="29">
         <f>C17*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H17" s="29">
         <f>D17*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -4326,15 +4345,15 @@
       </c>
       <c r="F18" s="36">
         <f>B18*data!$Q$4</f>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G18" s="36">
         <f>C18*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H18" s="36">
         <f>D18*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="T18" s="34"/>
     </row>
@@ -4353,15 +4372,15 @@
       </c>
       <c r="F19" s="29">
         <f>B19*data!$Q$4</f>
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G19" s="29">
         <f>C19*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H19" s="29">
         <f>D19*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="T19" s="35"/>
     </row>
@@ -4380,15 +4399,15 @@
       </c>
       <c r="F20" s="29">
         <f>B20*data!$Q$4</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G20" s="29">
         <f>C20*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H20" s="29">
         <f>D20*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="T20" s="35"/>
     </row>
@@ -4407,15 +4426,15 @@
       </c>
       <c r="F21" s="29">
         <f>B21*data!$Q$4</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G21" s="29">
         <f>C21*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H21" s="29">
         <f>D21*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="T21" s="34"/>
     </row>
@@ -4434,15 +4453,15 @@
       </c>
       <c r="F22" s="29">
         <f>B22*data!$Q$4</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G22" s="29">
         <f>C22*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H22" s="29">
         <f>D22*data!$Q$6</f>
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -4460,15 +4479,15 @@
       </c>
       <c r="F23" s="29">
         <f>B23*data!$Q$4</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G23" s="29">
         <f>C23*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H23" s="29">
         <f>D23*data!$Q$6</f>
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -4486,15 +4505,15 @@
       </c>
       <c r="F24" s="29">
         <f>B24*data!$Q$4</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G24" s="29">
         <f>C24*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H24" s="29">
         <f>D24*data!$Q$6</f>
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -4512,15 +4531,15 @@
       </c>
       <c r="F25" s="29">
         <f>B25*data!$Q$4</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G25" s="29">
         <f>C25*data!$Q$5</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H25" s="29">
         <f>D25*data!$Q$6</f>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4534,11 +4553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D632FA8-BC53-4827-A315-1C58737CF827}">
   <dimension ref="A1:BJ16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11.42578125" style="9"/>
     <col min="15" max="15" width="11.42578125" style="10"/>
@@ -4547,134 +4566,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="P1" s="39" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="W1" s="37" t="s">
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="W1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AE1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AR1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BB1" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AE1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AR1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BB1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
     </row>
     <row r="2" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
     </row>
     <row r="3" spans="1:62" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4693,10 +4712,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>5</v>
@@ -4724,19 +4743,19 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="W3" s="8" t="s">
         <v>10</v>
@@ -4751,16 +4770,16 @@
         <v>13</v>
       </c>
       <c r="AA3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" s="7" t="s">
         <v>1</v>
@@ -4768,16 +4787,16 @@
       <c r="AG3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="43" t="s">
         <v>6</v>
       </c>
       <c r="AL3" s="7" t="s">
@@ -4796,58 +4815,58 @@
         <v>16</v>
       </c>
       <c r="AR3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BB3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="BH3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BI3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AY3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB3" s="20" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="BI3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
@@ -4873,16 +4892,16 @@
         <v>10</v>
       </c>
       <c r="H4" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I4" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3">
         <v>300</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L4" s="3">
         <v>200</v>
@@ -4899,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="21">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="R4" s="21">
         <v>0</v>
@@ -4908,7 +4927,7 @@
         <v>250</v>
       </c>
       <c r="T4" s="21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U4" s="21">
         <v>0</v>
@@ -4917,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="X4" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="5">
         <v>0</v>
@@ -4932,7 +4951,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC4" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE4" s="1">
         <v>1</v>
@@ -4941,25 +4960,25 @@
         <v>0</v>
       </c>
       <c r="AG4" s="4">
-        <v>200</v>
-      </c>
-      <c r="AH4" s="4">
+        <v>-200</v>
+      </c>
+      <c r="AH4" s="44">
         <v>20</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="44">
         <v>5</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AJ4" s="44">
         <v>14</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="44">
         <v>14</v>
       </c>
       <c r="AL4" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="4">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="AN4" s="4">
         <v>1000</v>
@@ -4969,10 +4988,10 @@
       </c>
       <c r="AP4" s="4">
         <f>SQRT(AL4^2+AN4^2)</f>
-        <v>1414.2135623730951</v>
+        <v>1000</v>
       </c>
       <c r="AR4" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AS4" s="24">
         <v>1</v>
@@ -4999,7 +5018,7 @@
         <v>0.01</v>
       </c>
       <c r="BB4" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BC4" s="24">
         <v>1</v>
@@ -5049,33 +5068,33 @@
         <v>200</v>
       </c>
       <c r="H5" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I5" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J5" s="3">
         <v>400</v>
       </c>
       <c r="K5" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M5" s="3">
-        <v>-300</v>
+        <v>-250</v>
       </c>
       <c r="N5" s="4">
         <f>SQRT(J5^2+L5^2)</f>
-        <v>500</v>
+        <v>471.69905660283018</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="28">
         <v>1</v>
       </c>
       <c r="Q5" s="21">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="R5" s="21">
         <v>0</v>
@@ -5084,7 +5103,7 @@
         <v>250</v>
       </c>
       <c r="T5" s="21">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="U5" s="21">
         <v>0</v>
@@ -5093,7 +5112,7 @@
         <v>2</v>
       </c>
       <c r="X5" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Y5" s="5">
         <v>1</v>
@@ -5108,7 +5127,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC5" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE5" s="1">
         <v>2</v>
@@ -5117,25 +5136,25 @@
         <v>1</v>
       </c>
       <c r="AG5" s="4">
-        <v>200</v>
-      </c>
-      <c r="AH5" s="4">
+        <v>-200</v>
+      </c>
+      <c r="AH5" s="44">
         <v>20</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="44">
         <v>5</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ5" s="44">
         <v>14</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AK5" s="44">
         <v>14</v>
       </c>
       <c r="AL5" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="4">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="AN5" s="4">
         <v>1000</v>
@@ -5145,10 +5164,10 @@
       </c>
       <c r="AP5" s="4">
         <f t="shared" ref="AP5:AP6" si="0">SQRT(AL5^2+AN5^2)</f>
-        <v>1414.2135623730951</v>
+        <v>1000</v>
       </c>
       <c r="AR5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AS5" s="24">
         <v>1</v>
@@ -5175,7 +5194,7 @@
         <v>0.01</v>
       </c>
       <c r="BB5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BC5" s="24">
         <v>1</v>
@@ -5225,10 +5244,10 @@
         <v>50</v>
       </c>
       <c r="H6" s="3">
-        <v>200</v>
-      </c>
-      <c r="I6" s="42">
-        <v>200</v>
+        <v>150</v>
+      </c>
+      <c r="I6" s="38">
+        <v>150</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -5251,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="21">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="R6" s="21">
         <v>0</v>
@@ -5260,7 +5279,7 @@
         <v>250</v>
       </c>
       <c r="T6" s="21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="U6" s="21">
         <v>0</v>
@@ -5269,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="X6" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Y6" s="5">
         <v>0</v>
@@ -5284,7 +5303,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="AC6" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE6" s="1">
         <v>3</v>
@@ -5293,25 +5312,25 @@
         <v>2</v>
       </c>
       <c r="AG6" s="4">
-        <v>200</v>
-      </c>
-      <c r="AH6" s="4">
+        <v>-200</v>
+      </c>
+      <c r="AH6" s="44">
         <v>7</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI6" s="44">
         <v>5</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AJ6" s="44">
         <v>53.2</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="44">
         <v>53.2</v>
       </c>
       <c r="AL6" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="33">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="AN6" s="4">
         <v>1000</v>
@@ -5321,10 +5340,10 @@
       </c>
       <c r="AP6" s="4">
         <f t="shared" si="0"/>
-        <v>1414.2135623730951</v>
+        <v>1000</v>
       </c>
       <c r="AR6" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AS6" s="24">
         <v>1</v>
@@ -5351,7 +5370,7 @@
         <v>0.01</v>
       </c>
       <c r="BB6" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BC6" s="24">
         <v>1</v>
@@ -5380,10 +5399,10 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="S7" s="32"/>
-      <c r="T7" s="41"/>
+      <c r="T7" s="37"/>
       <c r="AM7" s="32"/>
       <c r="AR7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AS7" s="22">
         <v>1</v>
@@ -5410,7 +5429,7 @@
         <v>0.01</v>
       </c>
       <c r="BB7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BC7" s="22">
         <v>1</v>
@@ -5438,44 +5457,8 @@
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="AE8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="18">
-        <v>3</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="18">
-        <v>5</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AL8" s="18">
-        <v>7</v>
-      </c>
-      <c r="AM8" s="19">
-        <v>8</v>
-      </c>
-      <c r="AN8" s="18">
-        <v>9</v>
-      </c>
-      <c r="AO8" s="19">
-        <v>10</v>
-      </c>
-      <c r="AP8" s="18">
-        <v>11</v>
-      </c>
       <c r="AR8" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS8" s="22">
         <v>1</v>
@@ -5502,7 +5485,7 @@
         <v>0.01</v>
       </c>
       <c r="BB8" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BC8" s="22">
         <v>1</v>
@@ -5613,8 +5596,44 @@
       <c r="AC9" s="13">
         <v>6</v>
       </c>
+      <c r="AE9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="19">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="18">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="19">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="18">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>6</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>7</v>
+      </c>
+      <c r="AM9" s="19">
+        <v>8</v>
+      </c>
+      <c r="AN9" s="18">
+        <v>9</v>
+      </c>
+      <c r="AO9" s="19">
+        <v>10</v>
+      </c>
+      <c r="AP9" s="18">
+        <v>11</v>
+      </c>
       <c r="AR9" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AS9" s="23">
         <v>1</v>
@@ -5641,7 +5660,7 @@
         <v>0.01</v>
       </c>
       <c r="BB9" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BC9" s="23">
         <v>1</v>
@@ -5671,7 +5690,7 @@
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="AM10" s="32"/>
       <c r="AX10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">

--- a/data_3_bus.xlsx
+++ b/data_3_bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS-V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\SIPS_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88795B0E-0941-45CF-8B9E-278FF5F76AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7141D8A6-77BF-441D-828E-71F587D613C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="492" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loadcurve" sheetId="12" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="82">
   <si>
     <t>Generador</t>
   </si>
@@ -227,13 +227,95 @@
   </si>
   <si>
     <t>STORAGE</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>Relajado</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Costos Reales Modelo Normal 686640.8612166878</t>
+  </si>
+  <si>
+    <t>Costos Reales Modelo Relajado 696907.1409521701</t>
+  </si>
+  <si>
+    <t>Costos Reales Modelo Normal 707665.1965586409</t>
+  </si>
+  <si>
+    <t>Costos Reales Modelo Relajado 747009.5702118368</t>
+  </si>
+  <si>
+    <t>Costos Reales Modelo Normal 784804.754827574</t>
+  </si>
+  <si>
+    <t>Costos Reales Modelo Relajado 792643.014828948</t>
+  </si>
+  <si>
+    <t>Costos Reales Modelo Normal 842162.8816591493</t>
+  </si>
+  <si>
+    <t>Costos Reales Modelo Relajado 841068.9757648667</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Reales</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>fdem</t>
+  </si>
+  <si>
+    <t>Vm = 0.95 - 1.05 [pu]</t>
+  </si>
+  <si>
+    <t>Vm = 0.9 - 1.1 [pu]</t>
+  </si>
+  <si>
+    <t>Factor Crecimiento Demanda</t>
+  </si>
+  <si>
+    <t>Totales:</t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Lineas</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>-0.</t>
+  </si>
+  <si>
+    <t>1.]</t>
+  </si>
+  <si>
+    <t>Baterias</t>
+  </si>
+  <si>
+    <t>[0.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
@@ -375,10 +457,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +543,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,14 +561,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,7 +590,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -952,7 +1044,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1406,7 +1498,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1857,6 +1949,597 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Ahorro Costos con Medidas Correctivas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$AH$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vm = 0.95 - 1.05 [pu]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$AG$33:$AG$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$AH$33:$AH$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1434.9978000100236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-344.2997006640071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1837.5582864499884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6016.3398075799923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8226.5792605800088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A5E-4F13-BE83-8B36E50570D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$AI$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vm = 0.9 - 1.1 [pu]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$AG$33:$AG$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$AI$33:$AI$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1665.1101365720388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2823.4164470699616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4515.9379103200044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7508.6478574399371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10991.588153549936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A5E-4F13-BE83-8B36E50570D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1076235487"/>
+        <c:axId val="1078576159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1076235487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Factor Crecimiento Demanda</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078576159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1078576159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>[USD/día]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076235487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1937,6 +2620,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2970,6 +3693,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3596,6 +4835,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349249</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC5A406-5C97-4E5E-BCA8-38D3694B93B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3869,11 +5149,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127E3B10-D85C-494D-B830-85C63CDBD0BC}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showRowColHeaders="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="31"/>
   </cols>
@@ -3901,6 +5181,9 @@
       <c r="H1" s="31" t="s">
         <v>49</v>
       </c>
+      <c r="I1" s="31" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
@@ -3917,15 +5200,19 @@
       </c>
       <c r="F2">
         <f>B2*data!$Q$4</f>
-        <v>32</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G2" s="29">
         <f>C2*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H2" s="29">
         <f>D2*data!$Q$6</f>
-        <v>52</v>
+        <v>54.5</v>
+      </c>
+      <c r="I2">
+        <f>F2+G2+H2</f>
+        <v>305.20000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3943,15 +5230,19 @@
       </c>
       <c r="F3" s="29">
         <f>B3*data!$Q$4</f>
-        <v>32</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G3" s="29">
         <f>C3*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H3" s="29">
         <f>D3*data!$Q$6</f>
-        <v>52</v>
+        <v>54.5</v>
+      </c>
+      <c r="I3" s="29">
+        <f t="shared" ref="I3:I25" si="0">F3+G3+H3</f>
+        <v>305.20000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3969,15 +5260,19 @@
       </c>
       <c r="F4" s="29">
         <f>B4*data!$Q$4</f>
-        <v>32</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G4" s="29">
         <f>C4*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H4" s="29">
         <f>D4*data!$Q$6</f>
-        <v>52</v>
+        <v>54.5</v>
+      </c>
+      <c r="I4" s="29">
+        <f t="shared" si="0"/>
+        <v>305.20000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -3995,15 +5290,19 @@
       </c>
       <c r="F5" s="29">
         <f>B5*data!$Q$4</f>
-        <v>32</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G5" s="29">
         <f>C5*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H5" s="29">
         <f>D5*data!$Q$6</f>
-        <v>52</v>
+        <v>54.5</v>
+      </c>
+      <c r="I5" s="29">
+        <f t="shared" si="0"/>
+        <v>305.20000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4021,15 +5320,19 @@
       </c>
       <c r="F6" s="29">
         <f>B6*data!$Q$4</f>
-        <v>48</v>
+        <v>49.05</v>
       </c>
       <c r="G6" s="29">
         <f>C6*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H6" s="29">
         <f>D6*data!$Q$6</f>
-        <v>52</v>
+        <v>54.5</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="0"/>
+        <v>321.55</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4047,15 +5350,19 @@
       </c>
       <c r="F7" s="29">
         <f>B7*data!$Q$4</f>
-        <v>64</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="G7" s="29">
         <f>C7*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H7" s="29">
         <f>D7*data!$Q$6</f>
-        <v>52</v>
+        <v>54.5</v>
+      </c>
+      <c r="I7" s="29">
+        <f t="shared" si="0"/>
+        <v>337.90000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4073,15 +5380,19 @@
       </c>
       <c r="F8" s="29">
         <f>B8*data!$Q$4</f>
-        <v>128</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="G8" s="29">
         <f>C8*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H8" s="29">
         <f>D8*data!$Q$6</f>
-        <v>52</v>
+        <v>54.5</v>
+      </c>
+      <c r="I8" s="29">
+        <f t="shared" si="0"/>
+        <v>403.30000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -4099,15 +5410,19 @@
       </c>
       <c r="F9" s="29">
         <f>B9*data!$Q$4</f>
-        <v>136</v>
+        <v>138.97499999999999</v>
       </c>
       <c r="G9" s="29">
         <f>C9*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H9" s="29">
         <f>D9*data!$Q$6</f>
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="I9" s="29">
+        <f t="shared" si="0"/>
+        <v>465.97500000000002</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -4125,15 +5440,19 @@
       </c>
       <c r="F10" s="29">
         <f>B10*data!$Q$4</f>
-        <v>128</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="G10" s="29">
         <f>C10*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H10" s="29">
         <f>D10*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I10" s="29">
+        <f t="shared" si="0"/>
+        <v>621.30000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4151,15 +5470,19 @@
       </c>
       <c r="F11" s="29">
         <f>B11*data!$Q$4</f>
-        <v>112</v>
+        <v>114.44999999999999</v>
       </c>
       <c r="G11" s="29">
         <f>C11*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H11" s="29">
         <f>D11*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I11" s="29">
+        <f t="shared" si="0"/>
+        <v>604.95000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4177,15 +5500,19 @@
       </c>
       <c r="F12" s="29">
         <f>B12*data!$Q$4</f>
-        <v>96</v>
+        <v>98.1</v>
       </c>
       <c r="G12" s="29">
         <f>C12*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H12" s="29">
         <f>D12*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="0"/>
+        <v>588.6</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -4203,15 +5530,19 @@
       </c>
       <c r="F13" s="29">
         <f>B13*data!$Q$4</f>
-        <v>80</v>
+        <v>81.75</v>
       </c>
       <c r="G13" s="29">
         <f>C13*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H13" s="29">
         <f>D13*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I13" s="29">
+        <f t="shared" si="0"/>
+        <v>572.25</v>
       </c>
       <c r="U13">
         <v>100</v>
@@ -4232,15 +5563,19 @@
       </c>
       <c r="F14" s="29">
         <f>B14*data!$Q$4</f>
-        <v>80</v>
+        <v>81.75</v>
       </c>
       <c r="G14" s="29">
         <f>C14*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H14" s="29">
         <f>D14*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" si="0"/>
+        <v>572.25</v>
       </c>
       <c r="U14">
         <v>252</v>
@@ -4261,15 +5596,19 @@
       </c>
       <c r="F15" s="29">
         <f>B15*data!$Q$4</f>
-        <v>80</v>
+        <v>81.75</v>
       </c>
       <c r="G15" s="29">
         <f>C15*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H15" s="29">
         <f>D15*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I15" s="29">
+        <f t="shared" si="0"/>
+        <v>572.25</v>
       </c>
       <c r="U15">
         <v>97</v>
@@ -4290,15 +5629,19 @@
       </c>
       <c r="F16" s="29">
         <f>B16*data!$Q$4</f>
-        <v>80</v>
+        <v>81.75</v>
       </c>
       <c r="G16" s="29">
         <f>C16*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H16" s="29">
         <f>D16*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I16" s="29">
+        <f t="shared" si="0"/>
+        <v>572.25</v>
       </c>
       <c r="U16">
         <v>117</v>
@@ -4319,15 +5662,19 @@
       </c>
       <c r="F17" s="29">
         <f>B17*data!$Q$4</f>
-        <v>96</v>
+        <v>98.1</v>
       </c>
       <c r="G17" s="29">
         <f>C17*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H17" s="29">
         <f>D17*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="0"/>
+        <v>588.6</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -4345,15 +5692,19 @@
       </c>
       <c r="F18" s="36">
         <f>B18*data!$Q$4</f>
-        <v>112</v>
+        <v>114.44999999999999</v>
       </c>
       <c r="G18" s="36">
         <f>C18*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H18" s="36">
         <f>D18*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="0"/>
+        <v>604.95000000000005</v>
       </c>
       <c r="T18" s="34"/>
     </row>
@@ -4372,15 +5723,19 @@
       </c>
       <c r="F19" s="29">
         <f>B19*data!$Q$4</f>
-        <v>128</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="G19" s="29">
         <f>C19*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H19" s="29">
         <f>D19*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" si="0"/>
+        <v>621.30000000000007</v>
       </c>
       <c r="T19" s="35"/>
     </row>
@@ -4399,15 +5754,19 @@
       </c>
       <c r="F20" s="29">
         <f>B20*data!$Q$4</f>
-        <v>160</v>
+        <v>163.5</v>
       </c>
       <c r="G20" s="29">
         <f>C20*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H20" s="29">
         <f>D20*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" si="0"/>
+        <v>654</v>
       </c>
       <c r="T20" s="35"/>
     </row>
@@ -4426,15 +5785,19 @@
       </c>
       <c r="F21" s="29">
         <f>B21*data!$Q$4</f>
-        <v>160</v>
+        <v>163.5</v>
       </c>
       <c r="G21" s="29">
         <f>C21*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H21" s="29">
         <f>D21*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="0"/>
+        <v>654</v>
       </c>
       <c r="T21" s="34"/>
     </row>
@@ -4453,15 +5816,19 @@
       </c>
       <c r="F22" s="29">
         <f>B22*data!$Q$4</f>
-        <v>160</v>
+        <v>163.5</v>
       </c>
       <c r="G22" s="29">
         <f>C22*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H22" s="29">
         <f>D22*data!$Q$6</f>
-        <v>260</v>
+        <v>272.5</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="0"/>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -4479,15 +5846,19 @@
       </c>
       <c r="F23" s="29">
         <f>B23*data!$Q$4</f>
-        <v>96</v>
+        <v>98.1</v>
       </c>
       <c r="G23" s="29">
         <f>C23*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H23" s="29">
         <f>D23*data!$Q$6</f>
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="I23" s="29">
+        <f t="shared" si="0"/>
+        <v>534.1</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -4505,15 +5876,19 @@
       </c>
       <c r="F24" s="29">
         <f>B24*data!$Q$4</f>
-        <v>80</v>
+        <v>81.75</v>
       </c>
       <c r="G24" s="29">
         <f>C24*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H24" s="29">
         <f>D24*data!$Q$6</f>
-        <v>156</v>
+        <v>163.5</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="0"/>
+        <v>463.25</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -4531,15 +5906,19 @@
       </c>
       <c r="F25" s="29">
         <f>B25*data!$Q$4</f>
-        <v>64</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="G25" s="29">
         <f>C25*data!$Q$5</f>
-        <v>210</v>
+        <v>218.00000000000003</v>
       </c>
       <c r="H25" s="29">
         <f>D25*data!$Q$6</f>
-        <v>78</v>
+        <v>81.75</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" si="0"/>
+        <v>365.15000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4551,149 +5930,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D632FA8-BC53-4827-A315-1C58737CF827}">
-  <dimension ref="A1:BJ16"/>
+  <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="11.42578125" style="9"/>
     <col min="15" max="15" width="11.42578125" style="10"/>
     <col min="18" max="20" width="11.42578125" style="29"/>
     <col min="22" max="22" width="11.42578125" style="9"/>
+    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="P1" s="41" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="P1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="W1" s="39" t="s">
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="W1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AE1" s="39" t="s">
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AE1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AR1" s="39" t="s">
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AR1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BB1" s="39" t="s">
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BB1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="39"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
     </row>
     <row r="2" spans="1:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BB2" s="39"/>
-      <c r="BC2" s="39"/>
-      <c r="BD2" s="39"/>
-      <c r="BE2" s="39"/>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
-      <c r="BJ2" s="39"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
     </row>
     <row r="3" spans="1:62" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4787,16 +6168,16 @@
       <c r="AG3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="43" t="s">
+      <c r="AH3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AI3" s="43" t="s">
+      <c r="AI3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="43" t="s">
+      <c r="AJ3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="43" t="s">
+      <c r="AK3" s="39" t="s">
         <v>6</v>
       </c>
       <c r="AL3" s="7" t="s">
@@ -4883,7 +6264,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
@@ -4917,14 +6298,14 @@
       <c r="P4" s="28">
         <v>0</v>
       </c>
-      <c r="Q4" s="21">
-        <v>160</v>
+      <c r="Q4" s="46">
+        <v>163.5</v>
       </c>
       <c r="R4" s="21">
         <v>0</v>
       </c>
       <c r="S4" s="21">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T4" s="21">
         <v>20</v>
@@ -4962,16 +6343,16 @@
       <c r="AG4" s="4">
         <v>-200</v>
       </c>
-      <c r="AH4" s="44">
+      <c r="AH4" s="40">
         <v>20</v>
       </c>
-      <c r="AI4" s="44">
+      <c r="AI4" s="40">
         <v>5</v>
       </c>
-      <c r="AJ4" s="44">
+      <c r="AJ4" s="40">
         <v>14</v>
       </c>
-      <c r="AK4" s="44">
+      <c r="AK4" s="40">
         <v>14</v>
       </c>
       <c r="AL4" s="4">
@@ -5056,10 +6437,10 @@
         <v>60</v>
       </c>
       <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="E5" s="38">
+        <v>70</v>
       </c>
       <c r="F5" s="3">
         <v>300</v>
@@ -5093,14 +6474,14 @@
       <c r="P5" s="28">
         <v>1</v>
       </c>
-      <c r="Q5" s="21">
-        <v>210</v>
+      <c r="Q5" s="46">
+        <v>218.00000000000003</v>
       </c>
       <c r="R5" s="21">
         <v>0</v>
       </c>
       <c r="S5" s="21">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T5" s="21">
         <v>20</v>
@@ -5138,16 +6519,16 @@
       <c r="AG5" s="4">
         <v>-200</v>
       </c>
-      <c r="AH5" s="44">
+      <c r="AH5" s="40">
         <v>20</v>
       </c>
-      <c r="AI5" s="44">
+      <c r="AI5" s="40">
         <v>5</v>
       </c>
-      <c r="AJ5" s="44">
+      <c r="AJ5" s="40">
         <v>14</v>
       </c>
-      <c r="AK5" s="44">
+      <c r="AK5" s="40">
         <v>14</v>
       </c>
       <c r="AL5" s="4">
@@ -5232,10 +6613,10 @@
         <v>130</v>
       </c>
       <c r="D6" s="3">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
@@ -5269,14 +6650,14 @@
       <c r="P6" s="28">
         <v>2</v>
       </c>
-      <c r="Q6" s="21">
-        <v>260</v>
+      <c r="Q6" s="46">
+        <v>272.5</v>
       </c>
       <c r="R6" s="21">
         <v>0</v>
       </c>
       <c r="S6" s="21">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T6" s="21">
         <v>20</v>
@@ -5314,16 +6695,16 @@
       <c r="AG6" s="4">
         <v>-200</v>
       </c>
-      <c r="AH6" s="44">
+      <c r="AH6" s="40">
         <v>7</v>
       </c>
-      <c r="AI6" s="44">
+      <c r="AI6" s="40">
         <v>5</v>
       </c>
-      <c r="AJ6" s="44">
+      <c r="AJ6" s="40">
         <v>53.2</v>
       </c>
-      <c r="AK6" s="44">
+      <c r="AK6" s="40">
         <v>53.2</v>
       </c>
       <c r="AL6" s="4">
@@ -5398,6 +6779,7 @@
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="Q7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="37"/>
       <c r="AM7" s="32"/>
@@ -5693,11 +7075,677 @@
         <v>37</v>
       </c>
     </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="M12" s="32"/>
+      <c r="P12" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" t="s">
+        <v>67</v>
+      </c>
+      <c r="X12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12">
+        <v>890808.62654967897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="P13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13">
+        <v>892243.62434968899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="P14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" t="s">
+        <v>67</v>
+      </c>
+      <c r="X14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z14">
+        <v>956783.39732463099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="P15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="29"/>
+      <c r="V15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z15">
+        <v>957127.697025295</v>
+      </c>
+    </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="AG16" s="32"/>
+      <c r="P16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="29"/>
+      <c r="V16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W16" t="s">
+        <v>67</v>
+      </c>
+      <c r="X16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z16">
+        <v>1026475.12081619</v>
+      </c>
+      <c r="AH16" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK16" s="47"/>
+    </row>
+    <row r="17" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" t="s">
+        <v>67</v>
+      </c>
+      <c r="X17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17">
+        <v>1028312.67910264</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK17" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P18" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W18" t="s">
+        <v>67</v>
+      </c>
+      <c r="X18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z18">
+        <v>1098286.46769492</v>
+      </c>
+      <c r="AG18" s="29">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="29">
+        <v>890808.62654967897</v>
+      </c>
+      <c r="AI18" s="29">
+        <v>892243.62434968899</v>
+      </c>
+      <c r="AJ18" s="29">
+        <v>890578.51421311696</v>
+      </c>
+      <c r="AK18" s="29">
+        <v>892243.62434968899</v>
+      </c>
+    </row>
+    <row r="19" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P19" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W19" t="s">
+        <v>67</v>
+      </c>
+      <c r="X19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19">
+        <v>1104302.8075025</v>
+      </c>
+      <c r="AG19" s="29">
+        <v>1.05</v>
+      </c>
+      <c r="AH19" s="29">
+        <v>956783.39732463099</v>
+      </c>
+      <c r="AI19" s="29">
+        <v>957127.697025295</v>
+      </c>
+      <c r="AJ19" s="29">
+        <v>959951.11347236496</v>
+      </c>
+      <c r="AK19" s="29">
+        <v>957127.697025295</v>
+      </c>
+    </row>
+    <row r="20" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="V20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W20" t="s">
+        <v>67</v>
+      </c>
+      <c r="X20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z20">
+        <v>1172513.2577130699</v>
+      </c>
+      <c r="AG20" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH20" s="29">
+        <v>1026475.12081619</v>
+      </c>
+      <c r="AI20" s="29">
+        <v>1028312.67910264</v>
+      </c>
+      <c r="AJ20" s="29">
+        <v>1032828.61701296</v>
+      </c>
+      <c r="AK20" s="29">
+        <v>1028312.67910264</v>
+      </c>
+    </row>
+    <row r="21" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="V21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W21" t="s">
+        <v>67</v>
+      </c>
+      <c r="X21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z21">
+        <v>1180739.8369736499</v>
+      </c>
+      <c r="AG21" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AH21" s="29">
+        <v>1098286.46769492</v>
+      </c>
+      <c r="AI21" s="29">
+        <v>1104302.8075025</v>
+      </c>
+      <c r="AJ21" s="29">
+        <v>1096794.1596450601</v>
+      </c>
+      <c r="AK21" s="29">
+        <v>1104302.8075025</v>
+      </c>
+    </row>
+    <row r="22" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="AH22" s="29">
+        <v>1172513.2577130699</v>
+      </c>
+      <c r="AI22" s="29">
+        <v>1180739.8369736499</v>
+      </c>
+      <c r="AJ22" s="29">
+        <v>1169748.2488201</v>
+      </c>
+      <c r="AK22" s="29">
+        <v>1180739.8369736499</v>
+      </c>
+    </row>
+    <row r="23" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23" t="s">
+        <v>67</v>
+      </c>
+      <c r="X23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z23">
+        <v>890578.51421311696</v>
+      </c>
+    </row>
+    <row r="24" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W24" t="s">
+        <v>67</v>
+      </c>
+      <c r="X24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z24">
+        <v>892243.62434968899</v>
+      </c>
+      <c r="AI24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AM24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN24" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO24" s="45">
+        <v>43475309766738</v>
+      </c>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+    </row>
+    <row r="25" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W25" t="s">
+        <v>67</v>
+      </c>
+      <c r="X25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z25">
+        <v>959951.11347236496</v>
+      </c>
+      <c r="AM25" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN25" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO25" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP25" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ25" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR25" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W26" t="s">
+        <v>67</v>
+      </c>
+      <c r="X26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z26">
+        <v>957127.697025295</v>
+      </c>
+      <c r="AM26" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN26" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO26" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP26" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ26" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR26" s="29"/>
+    </row>
+    <row r="27" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z27">
+        <v>1032828.61701296</v>
+      </c>
+    </row>
+    <row r="28" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="V28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W28" t="s">
+        <v>67</v>
+      </c>
+      <c r="X28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z28">
+        <v>1028312.67910264</v>
+      </c>
+    </row>
+    <row r="29" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="V29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W29" t="s">
+        <v>67</v>
+      </c>
+      <c r="X29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z29">
+        <v>1096794.1596450601</v>
+      </c>
+    </row>
+    <row r="30" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="V30" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W30" t="s">
+        <v>67</v>
+      </c>
+      <c r="X30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z30">
+        <v>1104302.8075025</v>
+      </c>
+    </row>
+    <row r="31" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="V31" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W31" t="s">
+        <v>67</v>
+      </c>
+      <c r="X31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z31">
+        <v>1169748.2488201</v>
+      </c>
+    </row>
+    <row r="32" spans="16:44" x14ac:dyDescent="0.25">
+      <c r="V32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="W32" t="s">
+        <v>67</v>
+      </c>
+      <c r="X32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z32">
+        <v>1180739.8369736499</v>
+      </c>
+      <c r="AG32" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI32" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="U33" s="29"/>
+      <c r="AG33" s="29">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <f>AH18-AI18</f>
+        <v>-1434.9978000100236</v>
+      </c>
+      <c r="AI33" s="29">
+        <f>AJ18-AK18</f>
+        <v>-1665.1101365720388</v>
+      </c>
+    </row>
+    <row r="34" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="U34" s="29"/>
+      <c r="AG34" s="29">
+        <v>1.05</v>
+      </c>
+      <c r="AH34" s="29">
+        <f>AH19-AI19</f>
+        <v>-344.2997006640071</v>
+      </c>
+      <c r="AI34" s="29">
+        <f>AJ19-AK19</f>
+        <v>2823.4164470699616</v>
+      </c>
+      <c r="AL34">
+        <v>500</v>
+      </c>
+      <c r="AM34" s="48">
+        <f>AL34*AL35</f>
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="35" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="AG35" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH35" s="29">
+        <f>AH20-AI20</f>
+        <v>-1837.5582864499884</v>
+      </c>
+      <c r="AI35" s="29">
+        <f>AJ20-AK20</f>
+        <v>4515.9379103200044</v>
+      </c>
+      <c r="AL35">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="36" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="AG36" s="29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AH36" s="29">
+        <f>AH21-AI21</f>
+        <v>-6016.3398075799923</v>
+      </c>
+      <c r="AI36" s="29">
+        <f>AJ21-AK21</f>
+        <v>-7508.6478574399371</v>
+      </c>
+    </row>
+    <row r="37" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="AG37" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="AH37" s="29">
+        <f>AH22-AI22</f>
+        <v>-8226.5792605800088</v>
+      </c>
+      <c r="AI37" s="29">
+        <f>AJ22-AK22</f>
+        <v>-10991.588153549936</v>
+      </c>
+    </row>
+    <row r="38" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="AN38">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="39" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="AN39">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="T40" s="29">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AN40" s="48">
+        <f>AN38*AN39</f>
+        <v>1647975</v>
+      </c>
+    </row>
+    <row r="41" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="S41" s="29">
+        <v>150</v>
+      </c>
+      <c r="T41" s="29">
+        <f>S41*$T$40</f>
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="42" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="S42" s="29">
+        <v>200</v>
+      </c>
+      <c r="T42" s="29">
+        <f t="shared" ref="T42:T43" si="2">S42*$T$40</f>
+        <v>218.00000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="19:40" x14ac:dyDescent="0.25">
+      <c r="S43" s="29">
+        <v>250</v>
+      </c>
+      <c r="T43" s="29">
+        <f t="shared" si="2"/>
+        <v>272.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AK16"/>
     <mergeCell ref="BB1:BJ2"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="W1:AC2"/>
@@ -5708,5 +7756,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>